--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Cash/SalaryByEmployeeJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Cash/SalaryByEmployeeJournalReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Разные документы\Vodovoz\repo\origin_double\Vodovoz\Source\Libraries\Core\Business\Vodovoz.Reports\Reports\Cash\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E3555A-F10F-4659-95FF-8558CCFFF251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAB67D0-DB33-49C2-83CB-3BE333B7FB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="510" windowWidth="14400" windowHeight="7335" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -51,12 +51,6 @@
     <t>Категория</t>
   </si>
   <si>
-    <t>{{item.EmpCatEnum}}</t>
-  </si>
-  <si>
-    <t>{{item.Status}}</t>
-  </si>
-  <si>
     <t>Подразделение</t>
   </si>
   <si>
@@ -85,6 +79,12 @@
   </si>
   <si>
     <t>Журнал выдач З/П</t>
+  </si>
+  <si>
+    <t>{{item.EmployeeCategoryString}}</t>
+  </si>
+  <si>
+    <t>{{item.StatusString}}</t>
   </si>
 </sst>
 </file>
@@ -156,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -181,9 +181,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -508,20 +505,19 @@
   <dimension ref="A1:ALS5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="38" style="1" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="16.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="40.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.83203125" style="1" customWidth="1"/>
     <col min="10" max="1007" width="10.6640625" style="1"/>
     <col min="1008" max="1015" width="14.83203125" style="2" customWidth="1"/>
     <col min="1016" max="16384" width="10.6640625" style="2"/>
@@ -534,7 +530,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -557,16 +553,16 @@
         <v>1</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -577,30 +573,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="5" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G5" s="9"/>
-    </row>
+    <row r="5" spans="1:9" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="10000" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
